--- a/Data/Uddybning af prioritet.xlsx
+++ b/Data/Uddybning af prioritet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Dropbox\Forsvaret\HO\Afgangsprojekt\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D369261-E81F-4F8A-B770-06C23F591068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B788185E-86BE-45DE-B59A-13BF99C3B1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{817BAFD8-1B98-4DF2-9189-8E0FCC7C0B00}"/>
+    <workbookView xWindow="14475" yWindow="2160" windowWidth="13755" windowHeight="11385" xr2:uid="{817BAFD8-1B98-4DF2-9189-8E0FCC7C0B00}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Antal</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Anbefaling + Selvrealisering</t>
+  </si>
+  <si>
+    <t>Procent</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1DE3A7-F323-4AA4-92AB-12FF41D0FDEE}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +455,7 @@
     <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -462,8 +465,11 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -473,8 +479,12 @@
       <c r="C2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>C2/107*100</f>
+        <v>4.6728971962616823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -484,8 +494,12 @@
       <c r="C3">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">C3/107*100</f>
+        <v>42.990654205607477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -495,8 +509,12 @@
       <c r="C4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>4.6728971962616823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -506,8 +524,12 @@
       <c r="C5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>14.018691588785046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -517,8 +539,12 @@
       <c r="C6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>9.3457943925233646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -528,8 +554,12 @@
       <c r="C7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4.6728971962616823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -539,8 +569,12 @@
       <c r="C8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>9.3457943925233646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -550,8 +584,12 @@
       <c r="C9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3.7383177570093453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -561,8 +599,12 @@
       <c r="C10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.8691588785046727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -572,8 +614,12 @@
       <c r="C11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1.8691588785046727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -583,8 +629,12 @@
       <c r="C12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1.8691588785046727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -593,6 +643,10 @@
       </c>
       <c r="C13">
         <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.93457943925233633</v>
       </c>
     </row>
   </sheetData>
